--- a/Code/Results/Cases/Case_5_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.68832143844574</v>
+        <v>31.03919159155087</v>
       </c>
       <c r="C2">
-        <v>16.38502083354889</v>
+        <v>11.80897108301087</v>
       </c>
       <c r="D2">
-        <v>2.64032881918191</v>
+        <v>3.638390504451034</v>
       </c>
       <c r="E2">
-        <v>5.564631435341675</v>
+        <v>9.781564457095364</v>
       </c>
       <c r="F2">
-        <v>45.78957110129363</v>
+        <v>57.21429344714861</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.734372761047861</v>
+        <v>9.924875537058677</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.882028143912981</v>
+        <v>12.52259699289039</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.02974919791687</v>
+        <v>22.52100569876992</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.98527510156087</v>
+        <v>30.75136037658014</v>
       </c>
       <c r="C3">
-        <v>15.188693351189</v>
+        <v>11.45441418776792</v>
       </c>
       <c r="D3">
-        <v>2.475944573973688</v>
+        <v>3.598486616253938</v>
       </c>
       <c r="E3">
-        <v>5.5764164276652</v>
+        <v>9.791276608609017</v>
       </c>
       <c r="F3">
-        <v>44.33270736551662</v>
+        <v>57.1017890829133</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.78972760636876</v>
+        <v>9.944898989191147</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.709882531421119</v>
+        <v>12.53141073717467</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.2589855265008</v>
+        <v>22.58261734733783</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.91597812144073</v>
+        <v>30.58223800016076</v>
       </c>
       <c r="C4">
-        <v>14.42048747583826</v>
+        <v>11.23524848936645</v>
       </c>
       <c r="D4">
-        <v>2.372767334853884</v>
+        <v>3.573330323438677</v>
       </c>
       <c r="E4">
-        <v>5.584531645654103</v>
+        <v>9.797639032715338</v>
       </c>
       <c r="F4">
-        <v>43.46533158783753</v>
+        <v>57.04642659920724</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.824764428788426</v>
+        <v>9.957879266023536</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.607997276525989</v>
+        <v>12.53898630945135</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.40407628145233</v>
+        <v>22.62246927595953</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.47460035828615</v>
+        <v>30.51529977642626</v>
       </c>
       <c r="C5">
-        <v>14.09881034473042</v>
+        <v>11.14572470794387</v>
       </c>
       <c r="D5">
-        <v>2.330123418664441</v>
+        <v>3.56291594669956</v>
       </c>
       <c r="E5">
-        <v>5.588051883830549</v>
+        <v>9.800332367482326</v>
       </c>
       <c r="F5">
-        <v>43.11870034119563</v>
+        <v>57.02731752222397</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.839314766434021</v>
+        <v>9.963341812148711</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.567439156219727</v>
+        <v>12.54261745264082</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.46428090750722</v>
+        <v>22.63921799608947</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.40098113939797</v>
+        <v>30.50430624710864</v>
       </c>
       <c r="C6">
-        <v>14.04487073674684</v>
+        <v>11.13085129325346</v>
       </c>
       <c r="D6">
-        <v>2.323005443812153</v>
+        <v>3.561176855484029</v>
       </c>
       <c r="E6">
-        <v>5.588649085019521</v>
+        <v>9.800785676260654</v>
       </c>
       <c r="F6">
-        <v>43.061555759295</v>
+        <v>57.02435295723826</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.8417475466723</v>
+        <v>9.964259326765804</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.560762645819961</v>
+        <v>12.54325325405579</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.47434273962067</v>
+        <v>22.6420298426204</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.91004785126897</v>
+        <v>30.58132714253229</v>
       </c>
       <c r="C7">
-        <v>14.41618435487494</v>
+        <v>11.23404178532485</v>
       </c>
       <c r="D7">
-        <v>2.372194686118277</v>
+        <v>3.57319052909174</v>
       </c>
       <c r="E7">
-        <v>5.584578267100734</v>
+        <v>9.797674948349954</v>
       </c>
       <c r="F7">
-        <v>43.46062910972772</v>
+        <v>57.04615491090337</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.824959544956621</v>
+        <v>9.957952234740336</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.607446400494866</v>
+        <v>12.53903307775089</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.40488386599034</v>
+        <v>22.62269309482576</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.10616247206384</v>
+        <v>30.93841035837426</v>
       </c>
       <c r="C8">
-        <v>15.9794058255054</v>
+        <v>11.68711554888616</v>
       </c>
       <c r="D8">
-        <v>2.584092151128627</v>
+        <v>3.624768659502345</v>
       </c>
       <c r="E8">
-        <v>5.56850734623734</v>
+        <v>9.784830507987843</v>
       </c>
       <c r="F8">
-        <v>45.28160320706427</v>
+        <v>57.17265778689392</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.753246980544771</v>
+        <v>9.931637605054732</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.821881504474888</v>
+        <v>12.52518683756887</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.1078806529198</v>
+        <v>22.54182985460929</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.217869179579</v>
+        <v>31.69584672181441</v>
       </c>
       <c r="C9">
-        <v>18.78661956207042</v>
+        <v>12.55753325733104</v>
       </c>
       <c r="D9">
-        <v>2.983780986500852</v>
+        <v>3.72064164927088</v>
       </c>
       <c r="E9">
-        <v>5.544388986576227</v>
+        <v>9.762799133512143</v>
       </c>
       <c r="F9">
-        <v>49.07023621891348</v>
+        <v>57.52930836514225</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.620502153314714</v>
+        <v>9.885452127500228</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.272750770155962</v>
+        <v>12.5152040514705</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.56071317291737</v>
+        <v>22.39928959406292</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.11860399070507</v>
+        <v>32.28274083786071</v>
       </c>
       <c r="C10">
-        <v>20.70610806584092</v>
+        <v>13.17813083140936</v>
       </c>
       <c r="D10">
-        <v>3.27123319659928</v>
+        <v>3.787773898280446</v>
       </c>
       <c r="E10">
-        <v>5.53189194999333</v>
+        <v>9.748522915615609</v>
       </c>
       <c r="F10">
-        <v>51.99539616521356</v>
+        <v>57.85700943273506</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.527101391739562</v>
+        <v>9.854788709180854</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.623159267091209</v>
+        <v>12.51833087046732</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.18194570845636</v>
+        <v>22.30432079342258</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.41430163789714</v>
+        <v>32.55533601695991</v>
       </c>
       <c r="C11">
-        <v>21.55221594052065</v>
+        <v>13.4548988771846</v>
       </c>
       <c r="D11">
-        <v>3.401655336743905</v>
+        <v>3.817577881972676</v>
       </c>
       <c r="E11">
-        <v>5.527546535463077</v>
+        <v>9.742440155649797</v>
       </c>
       <c r="F11">
-        <v>53.3609409073181</v>
+        <v>58.02017144506028</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.485333634664815</v>
+        <v>9.841541836948039</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.787057350647242</v>
+        <v>12.52202057339672</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.0153021371782</v>
+        <v>22.26323205396104</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.93221136809375</v>
+        <v>32.65928184564266</v>
       </c>
       <c r="C12">
-        <v>21.86911289246366</v>
+        <v>13.55879991973061</v>
       </c>
       <c r="D12">
-        <v>3.451097289242719</v>
+        <v>3.828756638737781</v>
       </c>
       <c r="E12">
-        <v>5.52611553200476</v>
+        <v>9.740195734021581</v>
       </c>
       <c r="F12">
-        <v>53.8835727504133</v>
+        <v>58.08396225767282</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.469604322449278</v>
+        <v>9.836626004886464</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.849811916573286</v>
+        <v>12.52374311024321</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.95308808767569</v>
+        <v>22.24797657958243</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.81992673495885</v>
+        <v>32.63686462911244</v>
       </c>
       <c r="C13">
-        <v>21.8010125129049</v>
+        <v>13.53646482316551</v>
       </c>
       <c r="D13">
-        <v>3.440444829814375</v>
+        <v>3.826353894957728</v>
       </c>
       <c r="E13">
-        <v>5.526413784824646</v>
+        <v>9.740676489950474</v>
       </c>
       <c r="F13">
-        <v>53.7707585700399</v>
+        <v>58.0701349648407</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.472988317156669</v>
+        <v>9.83768025650032</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.836265037123866</v>
+        <v>12.5233576751887</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.96644593917968</v>
+        <v>22.25124859932913</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.45447289872376</v>
+        <v>32.5638737766181</v>
       </c>
       <c r="C14">
-        <v>21.57835505270013</v>
+        <v>13.46346559512065</v>
       </c>
       <c r="D14">
-        <v>3.405721215161759</v>
+        <v>3.818499726286141</v>
       </c>
       <c r="E14">
-        <v>5.527424364810198</v>
+        <v>9.742254324633222</v>
       </c>
       <c r="F14">
-        <v>53.40382373304983</v>
+        <v>58.0253795042188</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.484037928441647</v>
+        <v>9.841135397669424</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.792206069622294</v>
+        <v>12.52215577216572</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.01016538887278</v>
+        <v>22.26197088487606</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.24428314322224</v>
+        <v>32.51925592667943</v>
       </c>
       <c r="C15">
-        <v>21.44152698002133</v>
+        <v>13.41863058756197</v>
       </c>
       <c r="D15">
-        <v>3.384462410882935</v>
+        <v>3.81367478971517</v>
       </c>
       <c r="E15">
-        <v>5.528072038448506</v>
+        <v>9.743228470149598</v>
       </c>
       <c r="F15">
-        <v>53.17980399319941</v>
+        <v>57.99822591066529</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.490816969396369</v>
+        <v>9.843264841323496</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.765310107192478</v>
+        <v>12.52146191508698</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.03706340505034</v>
+        <v>22.26857817947871</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.03347264167508</v>
+        <v>32.26503162235838</v>
       </c>
       <c r="C16">
-        <v>20.65029981383284</v>
+        <v>13.15992236424344</v>
       </c>
       <c r="D16">
-        <v>3.262711306333036</v>
+        <v>3.785811204835102</v>
       </c>
       <c r="E16">
-        <v>5.53220465696853</v>
+        <v>9.748928703249195</v>
       </c>
       <c r="F16">
-        <v>51.90689643255848</v>
+        <v>57.84662818772654</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.529844162454875</v>
+        <v>9.855668509266811</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.612541944367198</v>
+        <v>12.51813530680827</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.1929561779036</v>
+        <v>22.30704856551477</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.28476563946453</v>
+        <v>32.11044926723483</v>
       </c>
       <c r="C17">
-        <v>20.15822935077686</v>
+        <v>12.99971306552999</v>
       </c>
       <c r="D17">
-        <v>3.188000938973724</v>
+        <v>3.768528366144047</v>
       </c>
       <c r="E17">
-        <v>5.535097170120673</v>
+        <v>9.752530882977654</v>
       </c>
       <c r="F17">
-        <v>51.13525395358436</v>
+        <v>57.7572224328881</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.553959670089288</v>
+        <v>9.86345722797849</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.520000898434446</v>
+        <v>12.51667479884281</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.29008857212241</v>
+        <v>22.33119015162918</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85185527763666</v>
+        <v>32.02207130839243</v>
       </c>
       <c r="C18">
-        <v>19.87262820714414</v>
+        <v>12.90704874918326</v>
       </c>
       <c r="D18">
-        <v>3.144990177024098</v>
+        <v>3.758518668300754</v>
       </c>
       <c r="E18">
-        <v>5.536885403551817</v>
+        <v>9.7546415111489</v>
       </c>
       <c r="F18">
-        <v>50.69466790772266</v>
+        <v>57.70712620813963</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.567899209832294</v>
+        <v>9.868003204021582</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.467193385873546</v>
+        <v>12.51604821508308</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.34648353797136</v>
+        <v>22.34527463568505</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.70488063933102</v>
+        <v>31.99224236586517</v>
       </c>
       <c r="C19">
-        <v>19.77547544488321</v>
+        <v>12.87558900770892</v>
       </c>
       <c r="D19">
-        <v>3.130417883265622</v>
+        <v>3.755117747241057</v>
       </c>
       <c r="E19">
-        <v>5.537511662741356</v>
+        <v>9.755362794876008</v>
       </c>
       <c r="F19">
-        <v>50.54603700816599</v>
+        <v>57.69039309604549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.572631203677712</v>
+        <v>9.869553762890702</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.449384683780538</v>
+        <v>12.51587274567</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.36566643564782</v>
+        <v>22.3500775561393</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.36470010630264</v>
+        <v>32.12685021492735</v>
       </c>
       <c r="C20">
-        <v>20.21087500552304</v>
+        <v>13.01682185374424</v>
       </c>
       <c r="D20">
-        <v>3.195957370609492</v>
+        <v>3.77037531441435</v>
       </c>
       <c r="E20">
-        <v>5.534776223881964</v>
+        <v>9.752143415777292</v>
       </c>
       <c r="F20">
-        <v>51.21705787088673</v>
+        <v>57.76660256960751</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.551385510289181</v>
+        <v>9.862621266867293</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.529808356232662</v>
+        <v>12.51680818452782</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.2796936386022</v>
+        <v>22.32859965452628</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.56087380809279</v>
+        <v>32.58529411942742</v>
       </c>
       <c r="C21">
-        <v>21.64384667983843</v>
+        <v>13.48493260495863</v>
       </c>
       <c r="D21">
-        <v>3.415918000424517</v>
+        <v>3.820809613109696</v>
       </c>
       <c r="E21">
-        <v>5.527121513558106</v>
+        <v>9.741789276966589</v>
       </c>
       <c r="F21">
-        <v>53.51144632186071</v>
+        <v>58.03847103884374</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.480790164277947</v>
+        <v>9.840117816055386</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.805128100771853</v>
+        <v>12.52249997742588</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.99729904311761</v>
+        <v>22.25881323997892</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.07279070522874</v>
+        <v>32.88906928533746</v>
       </c>
       <c r="C22">
-        <v>22.56017128794898</v>
+        <v>13.78555242829372</v>
       </c>
       <c r="D22">
-        <v>3.560052023961979</v>
+        <v>3.853144793930692</v>
       </c>
       <c r="E22">
-        <v>5.52338280564619</v>
+        <v>9.735365985914243</v>
       </c>
       <c r="F22">
-        <v>55.04356807792205</v>
+        <v>58.22782696162041</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.43515114889709</v>
+        <v>9.825995908763927</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.989120081223701</v>
+        <v>12.52811569771226</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.81797998741378</v>
+        <v>22.21497544384427</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.26820388387701</v>
+        <v>32.72658752428654</v>
       </c>
       <c r="C23">
-        <v>22.07281477695973</v>
+        <v>13.62562537331313</v>
       </c>
       <c r="D23">
-        <v>3.483051115093952</v>
+        <v>3.835944773878585</v>
       </c>
       <c r="E23">
-        <v>5.52525405117952</v>
+        <v>9.738762828522201</v>
       </c>
       <c r="F23">
-        <v>54.22264374940477</v>
+        <v>58.1257037129413</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.459469911400681</v>
+        <v>9.833479632038465</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.890530089136989</v>
+        <v>12.52494529305484</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.91317479710838</v>
+        <v>22.23821035487266</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.32856944699718</v>
+        <v>32.11943380272872</v>
       </c>
       <c r="C24">
-        <v>20.18708235346878</v>
+        <v>13.00908869990662</v>
       </c>
       <c r="D24">
-        <v>3.192360458419005</v>
+        <v>3.769540538106126</v>
       </c>
       <c r="E24">
-        <v>5.53492093500116</v>
+        <v>9.752318466067136</v>
       </c>
       <c r="F24">
-        <v>51.1800648827634</v>
+        <v>57.76235774552136</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.55254905245944</v>
+        <v>9.862998992614285</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.525373175494662</v>
+        <v>12.51674721710557</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.28439147341462</v>
+        <v>22.32977017923061</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.12697631891317</v>
+        <v>31.4852667414178</v>
       </c>
       <c r="C25">
-        <v>18.05348008315981</v>
+        <v>12.3248511158275</v>
       </c>
       <c r="D25">
-        <v>2.877034708876975</v>
+        <v>3.695279473714009</v>
       </c>
       <c r="E25">
-        <v>5.550056121812834</v>
+        <v>9.768422744724461</v>
       </c>
       <c r="F25">
-        <v>48.02139950111662</v>
+        <v>57.42124195434435</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.655634970223895</v>
+        <v>9.897370032262279</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.147488867936339</v>
+        <v>12.51606651179702</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.70481937368562</v>
+        <v>22.43613615576073</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.03919159155087</v>
+        <v>29.68832143844568</v>
       </c>
       <c r="C2">
-        <v>11.80897108301087</v>
+        <v>16.38502083354894</v>
       </c>
       <c r="D2">
-        <v>3.638390504451034</v>
+        <v>2.640328819181856</v>
       </c>
       <c r="E2">
-        <v>9.781564457095364</v>
+        <v>5.564631435341673</v>
       </c>
       <c r="F2">
-        <v>57.21429344714861</v>
+        <v>45.78957110129341</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.924875537058677</v>
+        <v>5.734372761047858</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.52259699289039</v>
+        <v>7.88202814391293</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.52100569876992</v>
+        <v>15.02974919791684</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.75136037658014</v>
+        <v>27.98527510156095</v>
       </c>
       <c r="C3">
-        <v>11.45441418776792</v>
+        <v>15.18869335118897</v>
       </c>
       <c r="D3">
-        <v>3.598486616253938</v>
+        <v>2.47594457397364</v>
       </c>
       <c r="E3">
-        <v>9.791276608609017</v>
+        <v>5.576416427665333</v>
       </c>
       <c r="F3">
-        <v>57.1017890829133</v>
+        <v>44.33270736551685</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.944898989191147</v>
+        <v>5.789727606368889</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.53141073717467</v>
+        <v>7.709882531421183</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.58261734733783</v>
+        <v>15.25898552650092</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.58223800016076</v>
+        <v>26.91597812144072</v>
       </c>
       <c r="C4">
-        <v>11.23524848936645</v>
+        <v>14.42048747583821</v>
       </c>
       <c r="D4">
-        <v>3.573330323438677</v>
+        <v>2.372767334853831</v>
       </c>
       <c r="E4">
-        <v>9.797639032715338</v>
+        <v>5.584531645654041</v>
       </c>
       <c r="F4">
-        <v>57.04642659920724</v>
+        <v>43.46533158783741</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.957879266023536</v>
+        <v>5.82476442878836</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.53898630945135</v>
+        <v>7.607997276525921</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.62246927595953</v>
+        <v>15.40407628145227</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.51529977642626</v>
+        <v>26.47460035828613</v>
       </c>
       <c r="C5">
-        <v>11.14572470794387</v>
+        <v>14.09881034473048</v>
       </c>
       <c r="D5">
-        <v>3.56291594669956</v>
+        <v>2.330123418664457</v>
       </c>
       <c r="E5">
-        <v>9.800332367482326</v>
+        <v>5.588051883830484</v>
       </c>
       <c r="F5">
-        <v>57.02731752222397</v>
+        <v>43.11870034119551</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.963341812148711</v>
+        <v>5.839314766433991</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.54261745264082</v>
+        <v>7.567439156219658</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.63921799608947</v>
+        <v>15.46428090750714</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.50430624710864</v>
+        <v>26.40098113939796</v>
       </c>
       <c r="C6">
-        <v>11.13085129325346</v>
+        <v>14.04487073674672</v>
       </c>
       <c r="D6">
-        <v>3.561176855484029</v>
+        <v>2.323005443812031</v>
       </c>
       <c r="E6">
-        <v>9.800785676260654</v>
+        <v>5.588649085019391</v>
       </c>
       <c r="F6">
-        <v>57.02435295723826</v>
+        <v>43.06155575929504</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.964259326765804</v>
+        <v>5.841747546672269</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.54325325405579</v>
+        <v>7.560762645819964</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.6420298426204</v>
+        <v>15.4743427396207</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.58132714253229</v>
+        <v>26.91004785126901</v>
       </c>
       <c r="C7">
-        <v>11.23404178532485</v>
+        <v>14.41618435487493</v>
       </c>
       <c r="D7">
-        <v>3.57319052909174</v>
+        <v>2.372194686118243</v>
       </c>
       <c r="E7">
-        <v>9.797674948349954</v>
+        <v>5.584578267100665</v>
       </c>
       <c r="F7">
-        <v>57.04615491090337</v>
+        <v>43.46062910972771</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.957952234740336</v>
+        <v>5.824959544956655</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.53903307775089</v>
+        <v>7.607446400494844</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.62269309482576</v>
+        <v>15.40488386599029</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.93841035837426</v>
+        <v>29.10616247206383</v>
       </c>
       <c r="C8">
-        <v>11.68711554888616</v>
+        <v>15.97940582550547</v>
       </c>
       <c r="D8">
-        <v>3.624768659502345</v>
+        <v>2.58409215112857</v>
       </c>
       <c r="E8">
-        <v>9.784830507987843</v>
+        <v>5.568507346237206</v>
       </c>
       <c r="F8">
-        <v>57.17265778689392</v>
+        <v>45.28160320706432</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.931637605054732</v>
+        <v>5.753246980544675</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.52518683756887</v>
+        <v>7.821881504474769</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.54182985460929</v>
+        <v>15.10788065291985</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.69584672181441</v>
+        <v>33.21786917957895</v>
       </c>
       <c r="C9">
-        <v>12.55753325733104</v>
+        <v>18.7866195620704</v>
       </c>
       <c r="D9">
-        <v>3.72064164927088</v>
+        <v>2.983780986500958</v>
       </c>
       <c r="E9">
-        <v>9.762799133512143</v>
+        <v>5.544388986576224</v>
       </c>
       <c r="F9">
-        <v>57.52930836514225</v>
+        <v>49.07023621891346</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.885452127500228</v>
+        <v>5.620502153314614</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.5152040514705</v>
+        <v>8.27275077015603</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.39928959406292</v>
+        <v>14.56071317291727</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.28274083786071</v>
+        <v>36.11860399070503</v>
       </c>
       <c r="C10">
-        <v>13.17813083140936</v>
+        <v>20.70610806584071</v>
       </c>
       <c r="D10">
-        <v>3.787773898280446</v>
+        <v>3.271233196599067</v>
       </c>
       <c r="E10">
-        <v>9.748522915615609</v>
+        <v>5.531891949993133</v>
       </c>
       <c r="F10">
-        <v>57.85700943273506</v>
+        <v>51.99539616521367</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.854788709180854</v>
+        <v>5.527101391739593</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.51833087046732</v>
+        <v>8.623159267091157</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.30432079342258</v>
+        <v>14.18194570845648</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.55533601695991</v>
+        <v>37.41430163789703</v>
       </c>
       <c r="C11">
-        <v>13.4548988771846</v>
+        <v>21.55221594052052</v>
       </c>
       <c r="D11">
-        <v>3.817577881972676</v>
+        <v>3.401655336743799</v>
       </c>
       <c r="E11">
-        <v>9.742440155649797</v>
+        <v>5.52754653546308</v>
       </c>
       <c r="F11">
-        <v>58.02017144506028</v>
+        <v>53.36094090731815</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.841541836948039</v>
+        <v>5.48533363466494</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.52202057339672</v>
+        <v>8.787057350647268</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.26323205396104</v>
+        <v>14.01530213717835</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.65928184564266</v>
+        <v>37.93221136809364</v>
       </c>
       <c r="C12">
-        <v>13.55879991973061</v>
+        <v>21.86911289246362</v>
       </c>
       <c r="D12">
-        <v>3.828756638737781</v>
+        <v>3.4510972892424</v>
       </c>
       <c r="E12">
-        <v>9.740195734021581</v>
+        <v>5.526115532004628</v>
       </c>
       <c r="F12">
-        <v>58.08396225767282</v>
+        <v>53.88357275041324</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.836626004886464</v>
+        <v>5.469604322449341</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.52374311024321</v>
+        <v>8.849811916573259</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.24797657958243</v>
+        <v>13.95308808767575</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.63686462911244</v>
+        <v>37.81992673495893</v>
       </c>
       <c r="C13">
-        <v>13.53646482316551</v>
+        <v>21.80101251290494</v>
       </c>
       <c r="D13">
-        <v>3.826353894957728</v>
+        <v>3.440444829814493</v>
       </c>
       <c r="E13">
-        <v>9.740676489950474</v>
+        <v>5.526413784824451</v>
       </c>
       <c r="F13">
-        <v>58.0701349648407</v>
+        <v>53.77075857003996</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.83768025650032</v>
+        <v>5.472988317156552</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.5233576751887</v>
+        <v>8.836265037123853</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.25124859932913</v>
+        <v>13.9664459391797</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.5638737766181</v>
+        <v>37.45447289872371</v>
       </c>
       <c r="C14">
-        <v>13.46346559512065</v>
+        <v>21.57835505270015</v>
       </c>
       <c r="D14">
-        <v>3.818499726286141</v>
+        <v>3.405721215161822</v>
       </c>
       <c r="E14">
-        <v>9.742254324633222</v>
+        <v>5.527424364810388</v>
       </c>
       <c r="F14">
-        <v>58.0253795042188</v>
+        <v>53.40382373304973</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.841135397669424</v>
+        <v>5.484037928441738</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.52215577216572</v>
+        <v>8.792206069622324</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.26197088487606</v>
+        <v>14.01016538887284</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.51925592667943</v>
+        <v>37.24428314322233</v>
       </c>
       <c r="C15">
-        <v>13.41863058756197</v>
+        <v>21.44152698002152</v>
       </c>
       <c r="D15">
-        <v>3.81367478971517</v>
+        <v>3.384462410883042</v>
       </c>
       <c r="E15">
-        <v>9.743228470149598</v>
+        <v>5.528072038448571</v>
       </c>
       <c r="F15">
-        <v>57.99822591066529</v>
+        <v>53.17980399319936</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.843264841323496</v>
+        <v>5.490816969396369</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.52146191508698</v>
+        <v>8.765310107192454</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.26857817947871</v>
+        <v>14.03706340505016</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.26503162235838</v>
+        <v>36.03347264167516</v>
       </c>
       <c r="C16">
-        <v>13.15992236424344</v>
+        <v>20.65029981383293</v>
       </c>
       <c r="D16">
-        <v>3.785811204835102</v>
+        <v>3.262711306332919</v>
       </c>
       <c r="E16">
-        <v>9.748928703249195</v>
+        <v>5.532204656968468</v>
       </c>
       <c r="F16">
-        <v>57.84662818772654</v>
+        <v>51.90689643255856</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.855668509266811</v>
+        <v>5.52984416245488</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.51813530680827</v>
+        <v>8.612541944367171</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.30704856551477</v>
+        <v>14.19295617790357</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.11044926723483</v>
+        <v>35.28476563946452</v>
       </c>
       <c r="C17">
-        <v>12.99971306552999</v>
+        <v>20.15822935077689</v>
       </c>
       <c r="D17">
-        <v>3.768528366144047</v>
+        <v>3.188000938973671</v>
       </c>
       <c r="E17">
-        <v>9.752530882977654</v>
+        <v>5.535097170120872</v>
       </c>
       <c r="F17">
-        <v>57.7572224328881</v>
+        <v>51.13525395358438</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.86345722797849</v>
+        <v>5.553959670089443</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.51667479884281</v>
+        <v>8.520000898434485</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.33119015162918</v>
+        <v>14.29008857212244</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.02207130839243</v>
+        <v>34.85185527763666</v>
       </c>
       <c r="C18">
-        <v>12.90704874918326</v>
+        <v>19.8726282071442</v>
       </c>
       <c r="D18">
-        <v>3.758518668300754</v>
+        <v>3.14499017702412</v>
       </c>
       <c r="E18">
-        <v>9.7546415111489</v>
+        <v>5.536885403551945</v>
       </c>
       <c r="F18">
-        <v>57.70712620813963</v>
+        <v>50.69466790772259</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.868003204021582</v>
+        <v>5.567899209832358</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.51604821508308</v>
+        <v>8.46719338587353</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.34527463568505</v>
+        <v>14.34648353797135</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.99224236586517</v>
+        <v>34.70488063933107</v>
       </c>
       <c r="C19">
-        <v>12.87558900770892</v>
+        <v>19.7754754448833</v>
       </c>
       <c r="D19">
-        <v>3.755117747241057</v>
+        <v>3.130417883265705</v>
       </c>
       <c r="E19">
-        <v>9.755362794876008</v>
+        <v>5.537511662741487</v>
       </c>
       <c r="F19">
-        <v>57.69039309604549</v>
+        <v>50.54603700816595</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.869553762890702</v>
+        <v>5.572631203677776</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.51587274567</v>
+        <v>8.449384683780544</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.3500775561393</v>
+        <v>14.36566643564773</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.12685021492735</v>
+        <v>35.36470010630268</v>
       </c>
       <c r="C20">
-        <v>13.01682185374424</v>
+        <v>20.21087500552314</v>
       </c>
       <c r="D20">
-        <v>3.77037531441435</v>
+        <v>3.195957370609523</v>
       </c>
       <c r="E20">
-        <v>9.752143415777292</v>
+        <v>5.534776223882025</v>
       </c>
       <c r="F20">
-        <v>57.76660256960751</v>
+        <v>51.2170578708867</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.862621266867293</v>
+        <v>5.551385510289244</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.51680818452782</v>
+        <v>8.529808356232628</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.32859965452628</v>
+        <v>14.27969363860219</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.58529411942742</v>
+        <v>37.56087380809285</v>
       </c>
       <c r="C21">
-        <v>13.48493260495863</v>
+        <v>21.64384667983851</v>
       </c>
       <c r="D21">
-        <v>3.820809613109696</v>
+        <v>3.415918000424687</v>
       </c>
       <c r="E21">
-        <v>9.741789276966589</v>
+        <v>5.527121513558106</v>
       </c>
       <c r="F21">
-        <v>58.03847103884374</v>
+        <v>53.51144632186073</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.840117816055386</v>
+        <v>5.480790164277936</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.52249997742588</v>
+        <v>8.805128100771858</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.25881323997892</v>
+        <v>13.99729904311751</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.88906928533746</v>
+        <v>39.07279070522871</v>
       </c>
       <c r="C22">
-        <v>13.78555242829372</v>
+        <v>22.560171287949</v>
       </c>
       <c r="D22">
-        <v>3.853144793930692</v>
+        <v>3.560052023961819</v>
       </c>
       <c r="E22">
-        <v>9.735365985914243</v>
+        <v>5.523382805646196</v>
       </c>
       <c r="F22">
-        <v>58.22782696162041</v>
+        <v>55.0435680779221</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.825995908763927</v>
+        <v>5.435151148897155</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.52811569771226</v>
+        <v>8.98912008122371</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.21497544384427</v>
+        <v>13.81797998741381</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.72658752428654</v>
+        <v>38.26820388387688</v>
       </c>
       <c r="C23">
-        <v>13.62562537331313</v>
+        <v>22.0728147769596</v>
       </c>
       <c r="D23">
-        <v>3.835944773878585</v>
+        <v>3.483051115094014</v>
       </c>
       <c r="E23">
-        <v>9.738762828522201</v>
+        <v>5.52525405117958</v>
       </c>
       <c r="F23">
-        <v>58.1257037129413</v>
+        <v>54.22264374940462</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.833479632038465</v>
+        <v>5.45946991140068</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.52494529305484</v>
+        <v>8.890530089136968</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.23821035487266</v>
+        <v>13.9131747971084</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.11943380272872</v>
+        <v>35.32856944699718</v>
       </c>
       <c r="C24">
-        <v>13.00908869990662</v>
+        <v>20.18708235346874</v>
       </c>
       <c r="D24">
-        <v>3.769540538106126</v>
+        <v>3.192360458419068</v>
       </c>
       <c r="E24">
-        <v>9.752318466067136</v>
+        <v>5.534920935001029</v>
       </c>
       <c r="F24">
-        <v>57.76235774552136</v>
+        <v>51.18006488276345</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.862998992614285</v>
+        <v>5.55254905245932</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.51674721710557</v>
+        <v>8.525373175494662</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.32977017923061</v>
+        <v>14.28439147341461</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.4852667414178</v>
+        <v>32.12697631891315</v>
       </c>
       <c r="C25">
-        <v>12.3248511158275</v>
+        <v>18.05348008315978</v>
       </c>
       <c r="D25">
-        <v>3.695279473714009</v>
+        <v>2.877034708876625</v>
       </c>
       <c r="E25">
-        <v>9.768422744724461</v>
+        <v>5.550056121812638</v>
       </c>
       <c r="F25">
-        <v>57.42124195434435</v>
+        <v>48.02139950111663</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.897370032262279</v>
+        <v>5.655634970223894</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.51606651179702</v>
+        <v>8.147488867936302</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.43613615576073</v>
+        <v>14.7048193736857</v>
       </c>
       <c r="O25">
         <v>0</v>
